--- a/数据库表信息.xlsx
+++ b/数据库表信息.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\django_webpro\GDN_BG\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="19395" windowHeight="7605"/>
+    <workbookView xWindow="600" yWindow="108" windowWidth="19392" windowHeight="7608"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>中文意思</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,139 +35,159 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phonenumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票抬头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票证明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片、pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片/pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>registration_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student_img_proof </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>职称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t> title</t>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参会类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生证明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>char</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参会类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Registration type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>proof of student </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生证明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit name</t>
-  </si>
-  <si>
-    <t>单位名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phonenumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Submitted a paper/abstract</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否投稿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>纳税人识别号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>submitted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tax_identification_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paper_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>文章号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Paper/abstract ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否参加优秀论评选</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Register for best paper competition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Taxpayer identification number</t>
+    <t>paper_competition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>支付方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发票抬头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纳税人识别号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Payment method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invoice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发票证明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invoice proof</t>
-  </si>
-  <si>
-    <t>图片、pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片/pdf</t>
+    <t>pay_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoice_img_proof</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,11 +245,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -266,7 +299,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -298,9 +331,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -332,6 +366,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -507,21 +542,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.75" customWidth="1"/>
-    <col min="2" max="2" width="39.25" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="24.77734375" customWidth="1"/>
+    <col min="2" max="2" width="39.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -532,191 +567,202 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -724,12 +770,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
